--- a/data/trans_bre/P14_1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P14_1-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,74</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>173,08%</t>
+          <t>150,8%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>39,47%</t>
+          <t>35,9%</t>
         </is>
       </c>
     </row>
@@ -609,12 +609,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 4,54</t>
+          <t>-1,64; 4,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 17,19</t>
+          <t>-3,22; 16,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 124,75</t>
+          <t>-13,32; 115,73</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,9</t>
+          <t>9,74</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>74,0%</t>
+          <t>67,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>47,91%</t>
+          <t>46,66%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 4,93</t>
+          <t>-1,67; 4,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 19,01</t>
+          <t>0,59; 18,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,89; —</t>
+          <t>-73,36; 906,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,8; 118,27</t>
+          <t>1,64; 117,24</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>63,78%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,62%</t>
+          <t>-4,9%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 9,14</t>
+          <t>-3,04; 3,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 6,32</t>
+          <t>-8,52; 5,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 526,17</t>
+          <t>-60,21; 174,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,44; 31,05</t>
+          <t>-28,16; 27,66</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,08%</t>
+          <t>-8,23%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,76</t>
+          <t>-2,54; 2,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 5,76</t>
+          <t>-8,2; 5,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-62,92; 279,04</t>
+          <t>-62,83; 235,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 34,43</t>
+          <t>-31,85; 31,06</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>206,23%</t>
+          <t>215,45%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>14,26%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 6,85</t>
+          <t>0,09; 7,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 10,41</t>
+          <t>-4,04; 9,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-43,96; 1308,73</t>
+          <t>-32,32; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,13; 69,58</t>
+          <t>-18,91; 62,53</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-30,82%</t>
+          <t>-18,12%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>28,53%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 3,22</t>
+          <t>-5,4; 5,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 10,86</t>
+          <t>-4,48; 9,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-83,18; 133,41</t>
+          <t>-82,15; 202,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,98; 128,86</t>
+          <t>-27,85; 111,95</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>41,68%</t>
+          <t>33,55%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>12,55%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 2,71</t>
+          <t>-0,4; 2,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 6,09</t>
+          <t>-0,9; 5,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 134,96</t>
+          <t>-14,45; 133,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 33,56</t>
+          <t>-4,2; 29,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P14_1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P14_1-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,123 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,52</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,06</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>150,8%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>35,9%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.57431954575322</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.736551430830399</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>1.688739651984442</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.3965707332175957</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,64; 4,75</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,22; 16,5</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-13,32; 115,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.33132544743003</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.296826662324595</v>
+      </c>
+      <c r="E5" s="6" t="inlineStr"/>
+      <c r="F5" s="6" t="n">
+        <v>-0.1130521973309591</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.858528641014212</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>17.06864978581868</v>
+      </c>
+      <c r="E6" s="6" t="inlineStr"/>
+      <c r="F6" s="6" t="n">
+        <v>1.304018565725429</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>9,74</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>67,77%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>46,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 4,24</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 18,61</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-73,36; 906,01</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>1,64; 117,24</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.149305108623263</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>8.682443769714249</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.6838931601436915</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.4059331382779515</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,24</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,99%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-4,9%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.584694162089946</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.1934954948015991</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.7108665996631253</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.02382234856259</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,04; 3,65</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,52; 5,8</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-60,21; 174,49</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-28,16; 27,66</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.997574866313409</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>17.73327708188317</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>9.422327474675614</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.087618884923345</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +712,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,82</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>13,93%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-8,23%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.331975266912595</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.6271647368715993</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.4097069754603525</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.02534601937517905</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,54; 2,86</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-8,2; 5,67</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-62,83; 235,81</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-31,85; 31,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.844790264255919</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.70173472074663</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.5022992516711722</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.2621794493557321</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.981334748663785</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.3765932162327</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>3.008915674795801</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.298694987015966</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,1</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>215,45%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>14,26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,09; 7,32</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,04; 9,43</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-32,32; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-18,91; 62,53</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.1482345025166951</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.201572712255369</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.05700888707393625</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.05542121517544085</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,9</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,43</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-18,12%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>28,53%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.088451553200757</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.616165814419247</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.6819502953998248</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.304748709430979</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-5,4; 5,29</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,48; 9,54</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-82,15; 202,89</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-27,85; 111,95</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.567899306545191</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.986873183887896</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.9908141433744</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.3324792162588989</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +840,187 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,52</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>33,55%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>12,55%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>3.00736676454985</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>3.075415083765382</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>2.058823913079153</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.1682515088911303</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,4; 2,67</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,9; 5,4</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-14,45; 133,8</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-4,2; 29,28</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-0.07593138086625177</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-3.58241195817718</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.3484719336518687</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.1790006275410747</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>7.255615243499223</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>9.968741288276874</v>
+      </c>
+      <c r="E18" s="6" t="inlineStr"/>
+      <c r="F18" s="6" t="n">
+        <v>0.6528959643113752</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-1.341983297325743</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>3.570751491112838</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.2635546460741046</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.3015301869347999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-6.202472463128835</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-4.672277669076053</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.8455705536456817</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.2876449911672974</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>3.74918961814821</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>9.576382104257831</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>1.559082437584802</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>1.138258240586406</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.9576345591050177</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>2.77485323721976</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.3723943493560678</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.1393840312359821</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-0.2760467320938523</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.6604740492714548</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.1105461891601962</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.03028967216355304</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>2.569336801654506</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>5.649650857808812</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>1.317950853192206</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.3052663297440006</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -997,16 +1028,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
